--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Lamb2-Rpsa.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Lamb2-Rpsa.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>29.235875</v>
+        <v>36.34093</v>
       </c>
       <c r="H2">
-        <v>58.47175</v>
+        <v>72.68186</v>
       </c>
       <c r="I2">
-        <v>0.2839773920289108</v>
+        <v>0.3861333486035449</v>
       </c>
       <c r="J2">
-        <v>0.2291401779026052</v>
+        <v>0.3390462217050474</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>99.91867449999999</v>
+        <v>165.288315</v>
       </c>
       <c r="N2">
-        <v>199.837349</v>
+        <v>330.57663</v>
       </c>
       <c r="O2">
-        <v>0.09980137661138361</v>
+        <v>0.1639943182961349</v>
       </c>
       <c r="P2">
-        <v>0.07390657035918601</v>
+        <v>0.1237066571128239</v>
       </c>
       <c r="Q2">
-        <v>2921.209877847687</v>
+        <v>6006.73108523295</v>
       </c>
       <c r="R2">
-        <v>11684.83951139075</v>
+        <v>24026.9243409318</v>
       </c>
       <c r="S2">
-        <v>0.02834133465099585</v>
+        <v>0.06332367527564216</v>
       </c>
       <c r="T2">
-        <v>0.01693496468027529</v>
+        <v>0.04194227469386477</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>29.235875</v>
+        <v>36.34093</v>
       </c>
       <c r="H3">
-        <v>58.47175</v>
+        <v>72.68186</v>
       </c>
       <c r="I3">
-        <v>0.2839773920289108</v>
+        <v>0.3861333486035449</v>
       </c>
       <c r="J3">
-        <v>0.2291401779026052</v>
+        <v>0.3390462217050474</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>908.6963499999999</v>
       </c>
       <c r="O3">
-        <v>0.3025432002761394</v>
+        <v>0.3005274721657043</v>
       </c>
       <c r="P3">
-        <v>0.3360664613620876</v>
+        <v>0.3400475943781163</v>
       </c>
       <c r="Q3">
-        <v>8855.510967185415</v>
+        <v>11007.62348220183</v>
       </c>
       <c r="R3">
-        <v>53133.0658031125</v>
+        <v>66045.740893211</v>
       </c>
       <c r="S3">
-        <v>0.0859154289904985</v>
+        <v>0.116043679174702</v>
       </c>
       <c r="T3">
-        <v>0.07700632874360773</v>
+        <v>0.1152918520737908</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>29.235875</v>
+        <v>36.34093</v>
       </c>
       <c r="H4">
-        <v>58.47175</v>
+        <v>72.68186</v>
       </c>
       <c r="I4">
-        <v>0.2839773920289108</v>
+        <v>0.3861333486035449</v>
       </c>
       <c r="J4">
-        <v>0.2291401779026052</v>
+        <v>0.3390462217050474</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>141.0632323333333</v>
+        <v>187.6649626666667</v>
       </c>
       <c r="N4">
-        <v>423.189697</v>
+        <v>562.9948880000001</v>
       </c>
       <c r="O4">
-        <v>0.1408976334660855</v>
+        <v>0.1861957853499179</v>
       </c>
       <c r="P4">
-        <v>0.1565097779425262</v>
+        <v>0.2106810017577126</v>
       </c>
       <c r="Q4">
-        <v>4124.107027593292</v>
+        <v>6819.919271721948</v>
       </c>
       <c r="R4">
-        <v>24744.64216555975</v>
+        <v>40919.51563033168</v>
       </c>
       <c r="S4">
-        <v>0.04001174249474435</v>
+        <v>0.07189640209303065</v>
       </c>
       <c r="T4">
-        <v>0.03586267836124768</v>
+        <v>0.0714305976309869</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>29.235875</v>
+        <v>36.34093</v>
       </c>
       <c r="H5">
-        <v>58.47175</v>
+        <v>72.68186</v>
       </c>
       <c r="I5">
-        <v>0.2839773920289108</v>
+        <v>0.3861333486035449</v>
       </c>
       <c r="J5">
-        <v>0.2291401779026052</v>
+        <v>0.3390462217050474</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>199.6886825</v>
+        <v>186.1209255</v>
       </c>
       <c r="N5">
-        <v>399.377365</v>
+        <v>372.241851</v>
       </c>
       <c r="O5">
-        <v>0.1994542612473658</v>
+        <v>0.1846638360250585</v>
       </c>
       <c r="P5">
-        <v>0.1477031769783876</v>
+        <v>0.1392983981496208</v>
       </c>
       <c r="Q5">
-        <v>5838.073360484687</v>
+        <v>6763.807525130715</v>
       </c>
       <c r="R5">
-        <v>23352.29344193875</v>
+        <v>27055.23010052286</v>
       </c>
       <c r="S5">
-        <v>0.05664050093807999</v>
+        <v>0.07130486537033176</v>
       </c>
       <c r="T5">
-        <v>0.03384473224960772</v>
+        <v>0.0472285955821943</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>29.235875</v>
+        <v>36.34093</v>
       </c>
       <c r="H6">
-        <v>58.47175</v>
+        <v>72.68186</v>
       </c>
       <c r="I6">
-        <v>0.2839773920289108</v>
+        <v>0.3861333486035449</v>
       </c>
       <c r="J6">
-        <v>0.2291401779026052</v>
+        <v>0.3390462217050474</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>74.052367</v>
+        <v>58.02559766666667</v>
       </c>
       <c r="N6">
-        <v>222.157101</v>
+        <v>174.076793</v>
       </c>
       <c r="O6">
-        <v>0.07396543443869841</v>
+        <v>0.05757133124063124</v>
       </c>
       <c r="P6">
-        <v>0.08216116505753533</v>
+        <v>0.0651421068178686</v>
       </c>
       <c r="Q6">
-        <v>2164.985745066125</v>
+        <v>2108.704183012497</v>
       </c>
       <c r="R6">
-        <v>12989.91447039675</v>
+        <v>12652.22509807498</v>
       </c>
       <c r="S6">
-        <v>0.02100451117218696</v>
+        <v>0.02223021091550881</v>
       </c>
       <c r="T6">
-        <v>0.01882642397796895</v>
+        <v>0.02208618519050496</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>29.235875</v>
+        <v>36.34093</v>
       </c>
       <c r="H7">
-        <v>58.47175</v>
+        <v>72.68186</v>
       </c>
       <c r="I7">
-        <v>0.2839773920289108</v>
+        <v>0.3861333486035449</v>
       </c>
       <c r="J7">
-        <v>0.2291401779026052</v>
+        <v>0.3390462217050474</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>183.5535736666667</v>
+        <v>107.891913</v>
       </c>
       <c r="N7">
-        <v>550.660721</v>
+        <v>323.675739</v>
       </c>
       <c r="O7">
-        <v>0.1833380939603272</v>
+        <v>0.1070472569225532</v>
       </c>
       <c r="P7">
-        <v>0.2036528483002774</v>
+        <v>0.1211242417838578</v>
       </c>
       <c r="Q7">
-        <v>5366.349335521958</v>
+        <v>3920.89245789909</v>
       </c>
       <c r="R7">
-        <v>32198.09601313175</v>
+        <v>23525.35474739454</v>
       </c>
       <c r="S7">
-        <v>0.0520638737824051</v>
+        <v>0.04133451577432945</v>
       </c>
       <c r="T7">
-        <v>0.04666504988989783</v>
+        <v>0.0410667165337056</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>77.35381599999999</v>
       </c>
       <c r="I8">
-        <v>0.2504541073956139</v>
+        <v>0.2739692132199374</v>
       </c>
       <c r="J8">
-        <v>0.3031355681963578</v>
+        <v>0.3608399544159635</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>99.91867449999999</v>
+        <v>165.288315</v>
       </c>
       <c r="N8">
-        <v>199.837349</v>
+        <v>330.57663</v>
       </c>
       <c r="O8">
-        <v>0.09980137661138361</v>
+        <v>0.1639943182961349</v>
       </c>
       <c r="P8">
-        <v>0.07390657035918601</v>
+        <v>0.1237066571128239</v>
       </c>
       <c r="Q8">
-        <v>2576.363587412297</v>
+        <v>4261.89396848668</v>
       </c>
       <c r="R8">
-        <v>15458.18152447378</v>
+        <v>25571.36381092008</v>
       </c>
       <c r="S8">
-        <v>0.02499566469605757</v>
+        <v>0.04492939435613208</v>
       </c>
       <c r="T8">
-        <v>0.02240371019927595</v>
+        <v>0.04463830451354261</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>77.35381599999999</v>
       </c>
       <c r="I9">
-        <v>0.2504541073956139</v>
+        <v>0.2739692132199374</v>
       </c>
       <c r="J9">
-        <v>0.3031355681963578</v>
+        <v>0.3608399544159635</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>908.6963499999999</v>
       </c>
       <c r="O9">
-        <v>0.3025432002761394</v>
+        <v>0.3005274721657043</v>
       </c>
       <c r="P9">
-        <v>0.3360664613620876</v>
+        <v>0.3400475943781163</v>
       </c>
       <c r="Q9">
         <v>7810.125584196843</v>
@@ -1013,10 +1013,10 @@
         <v>70291.13025777158</v>
       </c>
       <c r="S9">
-        <v>0.07577318717377293</v>
+        <v>0.08233527510021466</v>
       </c>
       <c r="T9">
-        <v>0.1018736977167358</v>
+        <v>0.1227027584546575</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>77.35381599999999</v>
       </c>
       <c r="I10">
-        <v>0.2504541073956139</v>
+        <v>0.2739692132199374</v>
       </c>
       <c r="J10">
-        <v>0.3031355681963578</v>
+        <v>0.3608399544159635</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>141.0632323333333</v>
+        <v>187.6649626666667</v>
       </c>
       <c r="N10">
-        <v>423.189697</v>
+        <v>562.9948880000001</v>
       </c>
       <c r="O10">
-        <v>0.1408976334660855</v>
+        <v>0.1861957853499179</v>
       </c>
       <c r="P10">
-        <v>0.1565097779425262</v>
+        <v>0.2106810017577126</v>
       </c>
       <c r="Q10">
-        <v>3637.259772759306</v>
+        <v>4838.866997254735</v>
       </c>
       <c r="R10">
-        <v>32735.33795483375</v>
+        <v>43549.80297529261</v>
       </c>
       <c r="S10">
-        <v>0.03528839102390282</v>
+        <v>0.05101191281718535</v>
       </c>
       <c r="T10">
-        <v>0.04744368046489347</v>
+        <v>0.07602212307056254</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>77.35381599999999</v>
       </c>
       <c r="I11">
-        <v>0.2504541073956139</v>
+        <v>0.2739692132199374</v>
       </c>
       <c r="J11">
-        <v>0.3031355681963578</v>
+        <v>0.3608399544159635</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>199.6886825</v>
+        <v>186.1209255</v>
       </c>
       <c r="N11">
-        <v>399.377365</v>
+        <v>372.241851</v>
       </c>
       <c r="O11">
-        <v>0.1994542612473658</v>
+        <v>0.1846638360250585</v>
       </c>
       <c r="P11">
-        <v>0.1477031769783876</v>
+        <v>0.1392983981496208</v>
       </c>
       <c r="Q11">
-        <v>5148.893867795807</v>
+        <v>4799.054608292236</v>
       </c>
       <c r="R11">
-        <v>30893.36320677484</v>
+        <v>28794.32764975341</v>
       </c>
       <c r="S11">
-        <v>0.04995413896696058</v>
+        <v>0.05059220586596081</v>
       </c>
       <c r="T11">
-        <v>0.04477408647775073</v>
+        <v>0.05026442763852591</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>77.35381599999999</v>
       </c>
       <c r="I12">
-        <v>0.2504541073956139</v>
+        <v>0.2739692132199374</v>
       </c>
       <c r="J12">
-        <v>0.3031355681963578</v>
+        <v>0.3608399544159635</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>74.052367</v>
+        <v>58.02559766666667</v>
       </c>
       <c r="N12">
-        <v>222.157101</v>
+        <v>174.076793</v>
       </c>
       <c r="O12">
-        <v>0.07396543443869841</v>
+        <v>0.05757133124063124</v>
       </c>
       <c r="P12">
-        <v>0.08216116505753533</v>
+        <v>0.0651421068178686</v>
       </c>
       <c r="Q12">
-        <v>1909.411057094157</v>
+        <v>1496.167135065788</v>
       </c>
       <c r="R12">
-        <v>17184.69951384742</v>
+        <v>13465.50421559209</v>
       </c>
       <c r="S12">
-        <v>0.01852494686047301</v>
+        <v>0.01577277232402014</v>
       </c>
       <c r="T12">
-        <v>0.02490597145339071</v>
+        <v>0.02350587485471953</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>77.35381599999999</v>
       </c>
       <c r="I13">
-        <v>0.2504541073956139</v>
+        <v>0.2739692132199374</v>
       </c>
       <c r="J13">
-        <v>0.3031355681963578</v>
+        <v>0.3608399544159635</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>183.5535736666667</v>
+        <v>107.891913</v>
       </c>
       <c r="N13">
-        <v>550.660721</v>
+        <v>323.675739</v>
       </c>
       <c r="O13">
-        <v>0.1833380939603272</v>
+        <v>0.1070472569225532</v>
       </c>
       <c r="P13">
-        <v>0.2036528483002774</v>
+        <v>0.1211242417838578</v>
       </c>
       <c r="Q13">
-        <v>4732.856454517926</v>
+        <v>2781.950395363336</v>
       </c>
       <c r="R13">
-        <v>42595.70809066133</v>
+        <v>25037.55355827002</v>
       </c>
       <c r="S13">
-        <v>0.04591777867444692</v>
+        <v>0.02932765275642439</v>
       </c>
       <c r="T13">
-        <v>0.06173442188431126</v>
+        <v>0.04370646588395538</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,22 +1281,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.27356</v>
+        <v>0.142995</v>
       </c>
       <c r="H14">
-        <v>0.82068</v>
+        <v>0.428985</v>
       </c>
       <c r="I14">
-        <v>0.002657175657079831</v>
+        <v>0.001519365029556588</v>
       </c>
       <c r="J14">
-        <v>0.003216095998513984</v>
+        <v>0.002001128526679694</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>99.91867449999999</v>
+        <v>165.288315</v>
       </c>
       <c r="N14">
-        <v>199.837349</v>
+        <v>330.57663</v>
       </c>
       <c r="O14">
-        <v>0.09980137661138361</v>
+        <v>0.1639943182961349</v>
       </c>
       <c r="P14">
-        <v>0.07390657035918601</v>
+        <v>0.1237066571128239</v>
       </c>
       <c r="Q14">
-        <v>27.33375259621999</v>
+        <v>23.635402603425</v>
       </c>
       <c r="R14">
-        <v>164.00251557732</v>
+        <v>141.81241562055</v>
       </c>
       <c r="S14">
-        <v>0.000265189788474825</v>
+        <v>0.0002491672322651196</v>
       </c>
       <c r="T14">
-        <v>0.0002376906251960703</v>
+        <v>0.0002475529204886554</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,22 +1343,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.27356</v>
+        <v>0.142995</v>
       </c>
       <c r="H15">
-        <v>0.82068</v>
+        <v>0.428985</v>
       </c>
       <c r="I15">
-        <v>0.002657175657079831</v>
+        <v>0.001519365029556588</v>
       </c>
       <c r="J15">
-        <v>0.003216095998513984</v>
+        <v>0.002001128526679694</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>908.6963499999999</v>
       </c>
       <c r="O15">
-        <v>0.3025432002761394</v>
+        <v>0.3005274721657043</v>
       </c>
       <c r="P15">
-        <v>0.3360664613620876</v>
+        <v>0.3400475943781163</v>
       </c>
       <c r="Q15">
-        <v>82.86099116866666</v>
+        <v>43.31301152275</v>
       </c>
       <c r="R15">
-        <v>745.7489205179999</v>
+        <v>389.81710370475</v>
       </c>
       <c r="S15">
-        <v>0.0008039104269887857</v>
+        <v>0.0004566109316296121</v>
       </c>
       <c r="T15">
-        <v>0.001080822001621364</v>
+        <v>0.0006804789415388539</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,22 +1405,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.27356</v>
+        <v>0.142995</v>
       </c>
       <c r="H16">
-        <v>0.82068</v>
+        <v>0.428985</v>
       </c>
       <c r="I16">
-        <v>0.002657175657079831</v>
+        <v>0.001519365029556588</v>
       </c>
       <c r="J16">
-        <v>0.003216095998513984</v>
+        <v>0.002001128526679694</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>141.0632323333333</v>
+        <v>187.6649626666667</v>
       </c>
       <c r="N16">
-        <v>423.189697</v>
+        <v>562.9948880000001</v>
       </c>
       <c r="O16">
-        <v>0.1408976334660855</v>
+        <v>0.1861957853499179</v>
       </c>
       <c r="P16">
-        <v>0.1565097779425262</v>
+        <v>0.2106810017577126</v>
       </c>
       <c r="Q16">
-        <v>38.58925783710666</v>
+        <v>26.83515133652001</v>
       </c>
       <c r="R16">
-        <v>347.30332053396</v>
+        <v>241.51636202868</v>
       </c>
       <c r="S16">
-        <v>0.0003743897617862391</v>
+        <v>0.0002828993649114901</v>
       </c>
       <c r="T16">
-        <v>0.0005033504705692706</v>
+        <v>0.0004215997626468134</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,22 +1467,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.27356</v>
+        <v>0.142995</v>
       </c>
       <c r="H17">
-        <v>0.82068</v>
+        <v>0.428985</v>
       </c>
       <c r="I17">
-        <v>0.002657175657079831</v>
+        <v>0.001519365029556588</v>
       </c>
       <c r="J17">
-        <v>0.003216095998513984</v>
+        <v>0.002001128526679694</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>199.6886825</v>
+        <v>186.1209255</v>
       </c>
       <c r="N17">
-        <v>399.377365</v>
+        <v>372.241851</v>
       </c>
       <c r="O17">
-        <v>0.1994542612473658</v>
+        <v>0.1846638360250585</v>
       </c>
       <c r="P17">
-        <v>0.1477031769783876</v>
+        <v>0.1392983981496208</v>
       </c>
       <c r="Q17">
-        <v>54.62683598469999</v>
+        <v>26.6143617418725</v>
       </c>
       <c r="R17">
-        <v>327.7610159082</v>
+        <v>159.686170451235</v>
       </c>
       <c r="S17">
-        <v>0.0005299850076873416</v>
+        <v>0.000280571774680246</v>
       </c>
       <c r="T17">
-        <v>0.0004750275964479952</v>
+        <v>0.0002787539982579921</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,22 +1529,22 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.27356</v>
+        <v>0.142995</v>
       </c>
       <c r="H18">
-        <v>0.82068</v>
+        <v>0.428985</v>
       </c>
       <c r="I18">
-        <v>0.002657175657079831</v>
+        <v>0.001519365029556588</v>
       </c>
       <c r="J18">
-        <v>0.003216095998513984</v>
+        <v>0.002001128526679694</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>74.052367</v>
+        <v>58.02559766666667</v>
       </c>
       <c r="N18">
-        <v>222.157101</v>
+        <v>174.076793</v>
       </c>
       <c r="O18">
-        <v>0.07396543443869841</v>
+        <v>0.05757133124063124</v>
       </c>
       <c r="P18">
-        <v>0.08216116505753533</v>
+        <v>0.0651421068178686</v>
       </c>
       <c r="Q18">
-        <v>20.25776551652</v>
+        <v>8.297370338345001</v>
       </c>
       <c r="R18">
-        <v>182.31988964868</v>
+        <v>74.67633304510501</v>
       </c>
       <c r="S18">
-        <v>0.0001965391518558436</v>
+        <v>8.747186739203381E-05</v>
       </c>
       <c r="T18">
-        <v>0.0002642381941747863</v>
+        <v>0.0001303577282412526</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,22 +1591,22 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.27356</v>
+        <v>0.142995</v>
       </c>
       <c r="H19">
-        <v>0.82068</v>
+        <v>0.428985</v>
       </c>
       <c r="I19">
-        <v>0.002657175657079831</v>
+        <v>0.001519365029556588</v>
       </c>
       <c r="J19">
-        <v>0.003216095998513984</v>
+        <v>0.002001128526679694</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>183.5535736666667</v>
+        <v>107.891913</v>
       </c>
       <c r="N19">
-        <v>550.660721</v>
+        <v>323.675739</v>
       </c>
       <c r="O19">
-        <v>0.1833380939603272</v>
+        <v>0.1070472569225532</v>
       </c>
       <c r="P19">
-        <v>0.2036528483002774</v>
+        <v>0.1211242417838578</v>
       </c>
       <c r="Q19">
-        <v>50.21291561225333</v>
+        <v>15.428004099435</v>
       </c>
       <c r="R19">
-        <v>451.91624051028</v>
+        <v>138.852036894915</v>
       </c>
       <c r="S19">
-        <v>0.0004871615202867962</v>
+        <v>0.0001626438586780867</v>
       </c>
       <c r="T19">
-        <v>0.0006549671105044975</v>
+        <v>0.0002423851755061263</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>24.439427</v>
+        <v>31.6324535</v>
       </c>
       <c r="H20">
-        <v>48.878854</v>
+        <v>63.26490699999999</v>
       </c>
       <c r="I20">
-        <v>0.2373879605840751</v>
+        <v>0.3361043648167761</v>
       </c>
       <c r="J20">
-        <v>0.1915473592159541</v>
+        <v>0.2951180347458252</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>99.91867449999999</v>
+        <v>165.288315</v>
       </c>
       <c r="N20">
-        <v>199.837349</v>
+        <v>330.57663</v>
       </c>
       <c r="O20">
-        <v>0.09980137661138361</v>
+        <v>0.1639943182961349</v>
       </c>
       <c r="P20">
-        <v>0.07390657035918601</v>
+        <v>0.1237066571128239</v>
       </c>
       <c r="Q20">
-        <v>2441.955151379512</v>
+        <v>5228.474938330853</v>
       </c>
       <c r="R20">
-        <v>9767.820605518047</v>
+        <v>20913.89975332341</v>
       </c>
       <c r="S20">
-        <v>0.02369164525725957</v>
+        <v>0.05511920618448263</v>
       </c>
       <c r="T20">
-        <v>0.01415660838101019</v>
+        <v>0.03650806553211226</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>24.439427</v>
+        <v>31.6324535</v>
       </c>
       <c r="H21">
-        <v>48.878854</v>
+        <v>63.26490699999999</v>
       </c>
       <c r="I21">
-        <v>0.2373879605840751</v>
+        <v>0.3361043648167761</v>
       </c>
       <c r="J21">
-        <v>0.1915473592159541</v>
+        <v>0.2951180347458252</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>908.6963499999999</v>
       </c>
       <c r="O21">
-        <v>0.3025432002761394</v>
+        <v>0.3005274721657043</v>
       </c>
       <c r="P21">
-        <v>0.3360664613620876</v>
+        <v>0.3400475943781163</v>
       </c>
       <c r="Q21">
-        <v>7402.672703663817</v>
+        <v>9581.43167899824</v>
       </c>
       <c r="R21">
-        <v>44416.0362219829</v>
+        <v>57488.59007398944</v>
       </c>
       <c r="S21">
-        <v>0.07182011330213212</v>
+        <v>0.1010085951422454</v>
       </c>
       <c r="T21">
-        <v>0.06437264319495836</v>
+        <v>0.1003541777729152</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>24.439427</v>
+        <v>31.6324535</v>
       </c>
       <c r="H22">
-        <v>48.878854</v>
+        <v>63.26490699999999</v>
       </c>
       <c r="I22">
-        <v>0.2373879605840751</v>
+        <v>0.3361043648167761</v>
       </c>
       <c r="J22">
-        <v>0.1915473592159541</v>
+        <v>0.2951180347458252</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>141.0632323333333</v>
+        <v>187.6649626666667</v>
       </c>
       <c r="N22">
-        <v>423.189697</v>
+        <v>562.9948880000001</v>
       </c>
       <c r="O22">
-        <v>0.1408976334660855</v>
+        <v>0.1861957853499179</v>
       </c>
       <c r="P22">
-        <v>0.1565097779425262</v>
+        <v>0.2106810017577126</v>
       </c>
       <c r="Q22">
-        <v>3447.50456899454</v>
+        <v>5936.30320513257</v>
       </c>
       <c r="R22">
-        <v>20685.02741396724</v>
+        <v>35617.81923079542</v>
       </c>
       <c r="S22">
-        <v>0.03344740185963657</v>
+        <v>0.06258121616659493</v>
       </c>
       <c r="T22">
-        <v>0.02997903465636628</v>
+        <v>0.06217576319701789</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>24.439427</v>
+        <v>31.6324535</v>
       </c>
       <c r="H23">
-        <v>48.878854</v>
+        <v>63.26490699999999</v>
       </c>
       <c r="I23">
-        <v>0.2373879605840751</v>
+        <v>0.3361043648167761</v>
       </c>
       <c r="J23">
-        <v>0.1915473592159541</v>
+        <v>0.2951180347458252</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>199.6886825</v>
+        <v>186.1209255</v>
       </c>
       <c r="N23">
-        <v>399.377365</v>
+        <v>372.241851</v>
       </c>
       <c r="O23">
-        <v>0.1994542612473658</v>
+        <v>0.1846638360250585</v>
       </c>
       <c r="P23">
-        <v>0.1477031769783876</v>
+        <v>0.1392983981496208</v>
       </c>
       <c r="Q23">
-        <v>4880.276978684928</v>
+        <v>5887.461521255714</v>
       </c>
       <c r="R23">
-        <v>19521.10791473971</v>
+        <v>23549.84608502285</v>
       </c>
       <c r="S23">
-        <v>0.04734804030731549</v>
+        <v>0.06206632131183158</v>
       </c>
       <c r="T23">
-        <v>0.02829215349801686</v>
+        <v>0.04110946950515759</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>24.439427</v>
+        <v>31.6324535</v>
       </c>
       <c r="H24">
-        <v>48.878854</v>
+        <v>63.26490699999999</v>
       </c>
       <c r="I24">
-        <v>0.2373879605840751</v>
+        <v>0.3361043648167761</v>
       </c>
       <c r="J24">
-        <v>0.1915473592159541</v>
+        <v>0.2951180347458252</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>74.052367</v>
+        <v>58.02559766666667</v>
       </c>
       <c r="N24">
-        <v>222.157101</v>
+        <v>174.076793</v>
       </c>
       <c r="O24">
-        <v>0.07396543443869841</v>
+        <v>0.05757133124063124</v>
       </c>
       <c r="P24">
-        <v>0.08216116505753533</v>
+        <v>0.0651421068178686</v>
       </c>
       <c r="Q24">
-        <v>1809.797417473709</v>
+        <v>1835.492020000542</v>
       </c>
       <c r="R24">
-        <v>10858.78450484226</v>
+        <v>11012.95212000325</v>
       </c>
       <c r="S24">
-        <v>0.01755850363511773</v>
+        <v>0.01934997571828858</v>
       </c>
       <c r="T24">
-        <v>0.01573775419687702</v>
+        <v>0.019224610543292</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>24.439427</v>
+        <v>31.6324535</v>
       </c>
       <c r="H25">
-        <v>48.878854</v>
+        <v>63.26490699999999</v>
       </c>
       <c r="I25">
-        <v>0.2373879605840751</v>
+        <v>0.3361043648167761</v>
       </c>
       <c r="J25">
-        <v>0.1915473592159541</v>
+        <v>0.2951180347458252</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>183.5535736666667</v>
+        <v>107.891913</v>
       </c>
       <c r="N25">
-        <v>550.660721</v>
+        <v>323.675739</v>
       </c>
       <c r="O25">
-        <v>0.1833380939603272</v>
+        <v>0.1070472569225532</v>
       </c>
       <c r="P25">
-        <v>0.2036528483002774</v>
+        <v>0.1211242417838578</v>
       </c>
       <c r="Q25">
-        <v>4485.944164215623</v>
+        <v>3412.885920998545</v>
       </c>
       <c r="R25">
-        <v>26915.66498529373</v>
+        <v>20477.31552599127</v>
       </c>
       <c r="S25">
-        <v>0.0435222562226136</v>
+        <v>0.03597905029333296</v>
       </c>
       <c r="T25">
-        <v>0.03900916528872545</v>
+        <v>0.03574594819533027</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>22.86379166666667</v>
+        <v>0.1937496666666667</v>
       </c>
       <c r="H26">
-        <v>68.591375</v>
+        <v>0.581249</v>
       </c>
       <c r="I26">
-        <v>0.2220833113218723</v>
+        <v>0.002058648680174685</v>
       </c>
       <c r="J26">
-        <v>0.2687971519594387</v>
+        <v>0.002711409384952959</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>99.91867449999999</v>
+        <v>165.288315</v>
       </c>
       <c r="N26">
-        <v>199.837349</v>
+        <v>330.57663</v>
       </c>
       <c r="O26">
-        <v>0.09980137661138361</v>
+        <v>0.1639943182961349</v>
       </c>
       <c r="P26">
-        <v>0.07390657035918601</v>
+        <v>0.1237066571128239</v>
       </c>
       <c r="Q26">
-        <v>2284.519757377479</v>
+        <v>32.024555935145</v>
       </c>
       <c r="R26">
-        <v>13707.11854426487</v>
+        <v>192.14733561087</v>
       </c>
       <c r="S26">
-        <v>0.02216422019233733</v>
+        <v>0.0003376066869164854</v>
       </c>
       <c r="T26">
-        <v>0.01986587562363907</v>
+        <v>0.0003354193910768685</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>22.86379166666667</v>
+        <v>0.1937496666666667</v>
       </c>
       <c r="H27">
-        <v>68.591375</v>
+        <v>0.581249</v>
       </c>
       <c r="I27">
-        <v>0.2220833113218723</v>
+        <v>0.002058648680174685</v>
       </c>
       <c r="J27">
-        <v>0.2687971519594387</v>
+        <v>0.002711409384952959</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>908.6963499999999</v>
       </c>
       <c r="O27">
-        <v>0.3025432002761394</v>
+        <v>0.3005274721657043</v>
       </c>
       <c r="P27">
-        <v>0.3360664613620876</v>
+        <v>0.3400475943781163</v>
       </c>
       <c r="Q27">
-        <v>6925.414678220139</v>
+        <v>58.68653830457222</v>
       </c>
       <c r="R27">
-        <v>62328.73210398125</v>
+        <v>528.17884474115</v>
       </c>
       <c r="S27">
-        <v>0.06718979573524142</v>
+        <v>0.0006186804839301617</v>
       </c>
       <c r="T27">
-        <v>0.09033370768321587</v>
+        <v>0.0009220082387275016</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>22.86379166666667</v>
+        <v>0.1937496666666667</v>
       </c>
       <c r="H28">
-        <v>68.591375</v>
+        <v>0.581249</v>
       </c>
       <c r="I28">
-        <v>0.2220833113218723</v>
+        <v>0.002058648680174685</v>
       </c>
       <c r="J28">
-        <v>0.2687971519594387</v>
+        <v>0.002711409384952959</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>141.0632323333333</v>
+        <v>187.6649626666667</v>
       </c>
       <c r="N28">
-        <v>423.189697</v>
+        <v>562.9948880000001</v>
       </c>
       <c r="O28">
-        <v>0.1408976334660855</v>
+        <v>0.1861957853499179</v>
       </c>
       <c r="P28">
-        <v>0.1565097779425262</v>
+        <v>0.2106810017577126</v>
       </c>
       <c r="Q28">
-        <v>3225.240355895931</v>
+        <v>36.36002396167912</v>
       </c>
       <c r="R28">
-        <v>29027.16320306338</v>
+        <v>327.240215655112</v>
       </c>
       <c r="S28">
-        <v>0.03129101299756373</v>
+        <v>0.0003833117077646974</v>
       </c>
       <c r="T28">
-        <v>0.04206938256475521</v>
+        <v>0.0005712424453971529</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>22.86379166666667</v>
+        <v>0.1937496666666667</v>
       </c>
       <c r="H29">
-        <v>68.591375</v>
+        <v>0.581249</v>
       </c>
       <c r="I29">
-        <v>0.2220833113218723</v>
+        <v>0.002058648680174685</v>
       </c>
       <c r="J29">
-        <v>0.2687971519594387</v>
+        <v>0.002711409384952959</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>199.6886825</v>
+        <v>186.1209255</v>
       </c>
       <c r="N29">
-        <v>399.377365</v>
+        <v>372.241851</v>
       </c>
       <c r="O29">
-        <v>0.1994542612473658</v>
+        <v>0.1846638360250585</v>
       </c>
       <c r="P29">
-        <v>0.1477031769783876</v>
+        <v>0.1392983981496208</v>
       </c>
       <c r="Q29">
-        <v>4565.640434871146</v>
+        <v>36.0608672753165</v>
       </c>
       <c r="R29">
-        <v>27393.84260922687</v>
+        <v>216.365203651899</v>
       </c>
       <c r="S29">
-        <v>0.04429546279507279</v>
+        <v>0.0003801579623089811</v>
       </c>
       <c r="T29">
-        <v>0.03970219330715152</v>
+        <v>0.0003776949840517959</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>22.86379166666667</v>
+        <v>0.1937496666666667</v>
       </c>
       <c r="H30">
-        <v>68.591375</v>
+        <v>0.581249</v>
       </c>
       <c r="I30">
-        <v>0.2220833113218723</v>
+        <v>0.002058648680174685</v>
       </c>
       <c r="J30">
-        <v>0.2687971519594387</v>
+        <v>0.002711409384952959</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>74.052367</v>
+        <v>58.02559766666667</v>
       </c>
       <c r="N30">
-        <v>222.157101</v>
+        <v>174.076793</v>
       </c>
       <c r="O30">
-        <v>0.07396543443869841</v>
+        <v>0.05757133124063124</v>
       </c>
       <c r="P30">
-        <v>0.08216116505753533</v>
+        <v>0.0651421068178686</v>
       </c>
       <c r="Q30">
-        <v>1693.117891511542</v>
+        <v>11.24244020605078</v>
       </c>
       <c r="R30">
-        <v>15238.06102360388</v>
+        <v>101.181961854457</v>
       </c>
       <c r="S30">
-        <v>0.01642648860350699</v>
+        <v>0.0001185191450744251</v>
       </c>
       <c r="T30">
-        <v>0.02208468716913485</v>
+        <v>0.0001766269197815771</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>22.86379166666667</v>
+        <v>0.1937496666666667</v>
       </c>
       <c r="H31">
-        <v>68.591375</v>
+        <v>0.581249</v>
       </c>
       <c r="I31">
-        <v>0.2220833113218723</v>
+        <v>0.002058648680174685</v>
       </c>
       <c r="J31">
-        <v>0.2687971519594387</v>
+        <v>0.002711409384952959</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>183.5535736666667</v>
+        <v>107.891913</v>
       </c>
       <c r="N31">
-        <v>550.660721</v>
+        <v>323.675739</v>
       </c>
       <c r="O31">
-        <v>0.1833380939603272</v>
+        <v>0.1070472569225532</v>
       </c>
       <c r="P31">
-        <v>0.2036528483002774</v>
+        <v>0.1211242417838578</v>
       </c>
       <c r="Q31">
-        <v>4196.73066798682</v>
+        <v>20.904022179779</v>
       </c>
       <c r="R31">
-        <v>37770.57601188137</v>
+        <v>188.136199618011</v>
       </c>
       <c r="S31">
-        <v>0.04071633099815001</v>
+        <v>0.0002203726941799345</v>
       </c>
       <c r="T31">
-        <v>0.05474130561154218</v>
+        <v>0.0003284174059180633</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,22 +2397,22 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F32">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G32">
-        <v>0.3541583333333334</v>
+        <v>0.02024033333333333</v>
       </c>
       <c r="H32">
-        <v>1.062475</v>
+        <v>0.060721</v>
       </c>
       <c r="I32">
-        <v>0.003440053012448085</v>
+        <v>0.0002150596500103863</v>
       </c>
       <c r="J32">
-        <v>0.004163646727130118</v>
+        <v>0.0002832512215310971</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>99.91867449999999</v>
+        <v>165.288315</v>
       </c>
       <c r="N32">
-        <v>199.837349</v>
+        <v>330.57663</v>
       </c>
       <c r="O32">
-        <v>0.09980137661138361</v>
+        <v>0.1639943182961349</v>
       </c>
       <c r="P32">
-        <v>0.07390657035918601</v>
+        <v>0.1237066571128239</v>
       </c>
       <c r="Q32">
-        <v>35.38703122979583</v>
+        <v>3.345490591705</v>
       </c>
       <c r="R32">
-        <v>212.322187378775</v>
+        <v>20.07294355023</v>
       </c>
       <c r="S32">
-        <v>0.000343322026258456</v>
+        <v>3.526856069645867E-05</v>
       </c>
       <c r="T32">
-        <v>0.0003077208497894366</v>
+        <v>3.504006173873595E-05</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,22 +2459,22 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F33">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G33">
-        <v>0.3541583333333334</v>
+        <v>0.02024033333333333</v>
       </c>
       <c r="H33">
-        <v>1.062475</v>
+        <v>0.060721</v>
       </c>
       <c r="I33">
-        <v>0.003440053012448085</v>
+        <v>0.0002150596500103863</v>
       </c>
       <c r="J33">
-        <v>0.004163646727130118</v>
+        <v>0.0002832512215310971</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>908.6963499999999</v>
       </c>
       <c r="O33">
-        <v>0.3025432002761394</v>
+        <v>0.3005274721657043</v>
       </c>
       <c r="P33">
-        <v>0.3360664613620876</v>
+        <v>0.3400475943781163</v>
       </c>
       <c r="Q33">
-        <v>107.2741282740278</v>
+        <v>6.130772340927777</v>
       </c>
       <c r="R33">
-        <v>965.46715446625</v>
+        <v>55.17695106834999</v>
       </c>
       <c r="S33">
-        <v>0.001040764647505618</v>
+        <v>6.463133298246248E-05</v>
       </c>
       <c r="T33">
-        <v>0.001399262021948456</v>
+        <v>9.631889648631244E-05</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,22 +2521,22 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F34">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G34">
-        <v>0.3541583333333334</v>
+        <v>0.02024033333333333</v>
       </c>
       <c r="H34">
-        <v>1.062475</v>
+        <v>0.060721</v>
       </c>
       <c r="I34">
-        <v>0.003440053012448085</v>
+        <v>0.0002150596500103863</v>
       </c>
       <c r="J34">
-        <v>0.004163646727130118</v>
+        <v>0.0002832512215310971</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>141.0632323333333</v>
+        <v>187.6649626666667</v>
       </c>
       <c r="N34">
-        <v>423.189697</v>
+        <v>562.9948880000001</v>
       </c>
       <c r="O34">
-        <v>0.1408976334660855</v>
+        <v>0.1861957853499179</v>
       </c>
       <c r="P34">
-        <v>0.1565097779425262</v>
+        <v>0.2106810017577126</v>
       </c>
       <c r="Q34">
-        <v>49.95871925778611</v>
+        <v>3.798401399360889</v>
       </c>
       <c r="R34">
-        <v>449.628473320075</v>
+        <v>34.185612594248</v>
       </c>
       <c r="S34">
-        <v>0.0004846953284518136</v>
+        <v>4.004320043076236E-05</v>
       </c>
       <c r="T34">
-        <v>0.0006516514246942607</v>
+        <v>5.96756511012673E-05</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,22 +2583,22 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F35">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G35">
-        <v>0.3541583333333334</v>
+        <v>0.02024033333333333</v>
       </c>
       <c r="H35">
-        <v>1.062475</v>
+        <v>0.060721</v>
       </c>
       <c r="I35">
-        <v>0.003440053012448085</v>
+        <v>0.0002150596500103863</v>
       </c>
       <c r="J35">
-        <v>0.004163646727130118</v>
+        <v>0.0002832512215310971</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>199.6886825</v>
+        <v>186.1209255</v>
       </c>
       <c r="N35">
-        <v>399.377365</v>
+        <v>372.241851</v>
       </c>
       <c r="O35">
-        <v>0.1994542612473658</v>
+        <v>0.1846638360250585</v>
       </c>
       <c r="P35">
-        <v>0.1477031769783876</v>
+        <v>0.1392983981496208</v>
       </c>
       <c r="Q35">
-        <v>70.72141097972917</v>
+        <v>3.7671495724285</v>
       </c>
       <c r="R35">
-        <v>424.328465878375</v>
+        <v>22.602897434571</v>
       </c>
       <c r="S35">
-        <v>0.0006861332322496081</v>
+        <v>3.971373994512445E-05</v>
       </c>
       <c r="T35">
-        <v>0.0006149838494127842</v>
+        <v>3.945644143320521E-05</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,22 +2645,22 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F36">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G36">
-        <v>0.3541583333333334</v>
+        <v>0.02024033333333333</v>
       </c>
       <c r="H36">
-        <v>1.062475</v>
+        <v>0.060721</v>
       </c>
       <c r="I36">
-        <v>0.003440053012448085</v>
+        <v>0.0002150596500103863</v>
       </c>
       <c r="J36">
-        <v>0.004163646727130118</v>
+        <v>0.0002832512215310971</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>74.052367</v>
+        <v>58.02559766666667</v>
       </c>
       <c r="N36">
-        <v>222.157101</v>
+        <v>174.076793</v>
       </c>
       <c r="O36">
-        <v>0.07396543443869841</v>
+        <v>0.05757133124063124</v>
       </c>
       <c r="P36">
-        <v>0.08216116505753533</v>
+        <v>0.0651421068178686</v>
       </c>
       <c r="Q36">
-        <v>26.22626287610834</v>
+        <v>1.174457438639222</v>
       </c>
       <c r="R36">
-        <v>236.036365884975</v>
+        <v>10.570116947753</v>
       </c>
       <c r="S36">
-        <v>0.0002544450155578758</v>
+        <v>1.238127034724218E-05</v>
       </c>
       <c r="T36">
-        <v>0.0003420900659890044</v>
+        <v>1.845158132927048E-05</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,22 +2707,22 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F37">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G37">
-        <v>0.3541583333333334</v>
+        <v>0.02024033333333333</v>
       </c>
       <c r="H37">
-        <v>1.062475</v>
+        <v>0.060721</v>
       </c>
       <c r="I37">
-        <v>0.003440053012448085</v>
+        <v>0.0002150596500103863</v>
       </c>
       <c r="J37">
-        <v>0.004163646727130118</v>
+        <v>0.0002832512215310971</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>183.5535736666667</v>
+        <v>107.891913</v>
       </c>
       <c r="N37">
-        <v>550.660721</v>
+        <v>323.675739</v>
       </c>
       <c r="O37">
-        <v>0.1833380939603272</v>
+        <v>0.1070472569225532</v>
       </c>
       <c r="P37">
-        <v>0.2036528483002774</v>
+        <v>0.1211242417838578</v>
       </c>
       <c r="Q37">
-        <v>65.00702772716389</v>
+        <v>2.183768283091</v>
       </c>
       <c r="R37">
-        <v>585.063249544475</v>
+        <v>19.653914547819</v>
       </c>
       <c r="S37">
-        <v>0.0006306927624247135</v>
+        <v>2.302154560833619E-05</v>
       </c>
       <c r="T37">
-        <v>0.0008479385152961765</v>
+        <v>3.430858944230566E-05</v>
       </c>
     </row>
   </sheetData>
